--- a/biology/Zoologie/Automeris_michoacana/Automeris_michoacana.xlsx
+++ b/biology/Zoologie/Automeris_michoacana/Automeris_michoacana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Automeris michoacana est une espèce de papillons de la famille des Saturniidae endémique du Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens collectés d’Automeris michoacana l'ont été à une altitude de 1 600 m dans le bassin du río Balsas au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens collectés d’Automeris michoacana l'ont été à une altitude de 1 600 m dans le bassin du río Balsas au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les spécimens connus ont été collectés en juin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les spécimens connus ont été collectés en juin.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Automeris michoacana Balcázar-Lara (d), 2000[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Automeris michoacana Balcázar-Lara (d), 2000,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, michoacana, lui a été donnée en l'honneur de l'université Michoacana de San Nicolás de Hidalgo (en) où l'auteur a obtenu son Bachelor of Science lorsqu'il a collecté l'holotype de cette espèce[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, michoacana, lui a été donnée en l'honneur de l'université Michoacana de San Nicolás de Hidalgo (en) où l'auteur a obtenu son Bachelor of Science lorsqu'il a collecté l'holotype de cette espèce.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) M.A. Balcázar-Lara, « A new species of Automeris (Lepidoptera: Saturniidae) from central Mexico », Entomological News, Philadelphie, vol. 111, no 5,‎ novembre 2000, p. 317-321 (ISSN 0013-872X, lire en ligne, consulté le 30 juin 2023).</t>
         </is>
